--- a/dtpu_configurations/only_integer32/30mhz/mxu_8x8/power.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/mxu_8x8/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="10.3125" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.013430058024823666</v>
+        <v>0.022760385647416115</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005311299581080675</v>
+        <v>0.006879652384668589</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004224391188472509</v>
+        <v>0.005028995219618082</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.002919320249930024</v>
+        <v>0.0029195903334766626</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.7893484255182557E-5</v>
+        <v>0.001447517890483141</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>7.477730978280306E-4</v>
@@ -196,13 +196,13 @@
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12724493443965912</v>
+        <v>0.12735162675380707</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4120796918869019</v>
+        <v>1.4253007173538208</v>
       </c>
     </row>
   </sheetData>
